--- a/Cluster/JobTracker.xlsx
+++ b/Cluster/JobTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34280" yWindow="-1040" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-16900" yWindow="-3140" windowWidth="16320" windowHeight="19720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MrBayes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="37">
   <si>
     <t>Taxa</t>
   </si>
@@ -93,13 +93,49 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>3238024.cx1b</t>
+    <t>2016-12-21-10:57</t>
   </si>
   <si>
-    <t>3238026.cx1b</t>
+    <t>Missing</t>
   </si>
   <si>
-    <t>2016-12-19-15:50</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2017-01-04-13:39</t>
+  </si>
+  <si>
+    <t>2017-01-04-14:05</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>2017-01-06-12:11</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>2017-01-09-11:38</t>
+  </si>
+  <si>
+    <t>2017-01-09-11:43</t>
+  </si>
+  <si>
+    <t>2017-01-09-11:45</t>
+  </si>
+  <si>
+    <t>2017-01-09-11:48</t>
+  </si>
+  <si>
+    <t>2017-01-09-11:49</t>
   </si>
 </sst>
 </file>
@@ -108,7 +144,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,7 +166,7 @@
       <name val="Courier"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +197,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -174,18 +216,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,6 +238,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFAC00"/>
       <color rgb="FF00FA00"/>
     </mruColors>
   </colors>
@@ -468,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M451"/>
+  <dimension ref="A1:P451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="67" workbookViewId="0">
+      <selection activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
@@ -484,11 +529,11 @@
     <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="10" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -514,10 +559,34 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K1" s="1">
+        <f>SUM(J2:J451)</f>
+        <v>3521.3398000000002</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1">
+        <f>K1/24</f>
+        <v>146.72249166666668</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1">
+        <f>K1/24/365</f>
+        <v>0.40197942922374436</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -533,29 +602,35 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>3256223</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.95328000000000002</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -571,17 +646,23 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
+      <c r="F3" s="1">
+        <v>3256224</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.84440000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -597,8 +678,23 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>3256225</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.6910400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -614,8 +710,23 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>3256226</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.4066399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -631,8 +742,23 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>3256227</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.64888000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -648,8 +774,23 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>3256228</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.9666399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -665,8 +806,23 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>3256229</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.51551999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -682,8 +838,23 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>3256230</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.5444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -699,8 +870,23 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>3256231</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.71104000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -716,8 +902,23 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>3256232</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.73551999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -733,8 +934,23 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>3256233</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.8510399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -750,8 +966,23 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>3256234</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.08216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -767,8 +998,23 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>3256235</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.3288800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -784,8 +1030,23 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>3256236</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4.5666399999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -801,8 +1062,23 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>3256237</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.67552000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -818,8 +1094,23 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>3256238</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.61551999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -835,8 +1126,23 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>3256239</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.9244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,8 +1158,23 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>3256240</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.66439999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +1190,23 @@
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>3256241</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.85775999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +1222,23 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>3256242</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.1732800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -904,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -921,7 +1272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,7 +1289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -955,7 +1306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,7 +1323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,7 +1340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,7 +1357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,7 +1374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,7 +1391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -1057,7 +1408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1346,7 +1697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -1380,12 +1731,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C51" s="3">
         <v>50</v>
@@ -1397,7 +1748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -1413,8 +1764,23 @@
       <c r="E52" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="1">
+        <v>3256243</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1.6332800000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -1430,8 +1796,23 @@
       <c r="E53" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <v>3344408</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
+        <v>29.81664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -1447,8 +1828,23 @@
       <c r="E54" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="1">
+        <v>3256245</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>1.9132800000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -1464,8 +1860,23 @@
       <c r="E55" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="1">
+        <v>3256246</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11">
+        <v>4.3044000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -1481,8 +1892,23 @@
       <c r="E56" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="1">
+        <v>3256247</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0.46888000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -1498,8 +1924,23 @@
       <c r="E57" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="1">
+        <v>3256248</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -1515,8 +1956,23 @@
       <c r="E58" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="1">
+        <v>3344409</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11">
+        <v>11.983320000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
@@ -1532,8 +1988,23 @@
       <c r="E59" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="1">
+        <v>3344410</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="11">
+        <v>14.223240000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -1549,8 +2020,23 @@
       <c r="E60" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="1">
+        <v>3256251</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="11">
+        <v>0.95104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -1566,8 +2052,23 @@
       <c r="E61" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="1">
+        <v>3256252</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0.56440000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -1583,8 +2084,23 @@
       <c r="E62" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="1">
+        <v>3256253</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="11">
+        <v>2.4510399999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -1600,8 +2116,23 @@
       <c r="E63" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <v>3256254</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11">
+        <v>2.53328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -1617,8 +2148,23 @@
       <c r="E64" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="1">
+        <v>3256255</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11">
+        <v>10.177759999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -1634,8 +2180,23 @@
       <c r="E65" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>3256256</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0.70887999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
@@ -1651,8 +2212,23 @@
       <c r="E66" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="1">
+        <v>3256257</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="11">
+        <v>3.0866400000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -1668,8 +2244,23 @@
       <c r="E67" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="1">
+        <v>3256258</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -1685,8 +2276,23 @@
       <c r="E68" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="1">
+        <v>3256259</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="11">
+        <v>1.60216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -1702,8 +2308,23 @@
       <c r="E69" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="1">
+        <v>3256260</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
+        <v>2.4488799999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -1719,8 +2340,23 @@
       <c r="E70" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="1">
+        <v>3256261</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="11">
+        <v>35.875520000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
@@ -1736,8 +2372,23 @@
       <c r="E71" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="1">
+        <v>3256262</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="11">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -1754,7 +2405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -1771,7 +2422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -1788,7 +2439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
@@ -1805,7 +2456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +2473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -1839,7 +2490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
@@ -1856,7 +2507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -1873,7 +2524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -2162,7 +2813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -2179,7 +2830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -2196,7 +2847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -2230,7 +2881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -2247,7 +2898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -2263,8 +2914,23 @@
       <c r="E102" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="1">
+        <v>3344397</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="11">
+        <v>0.58331999999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -2280,8 +2946,23 @@
       <c r="E103" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="1">
+        <v>3344398</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="11">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
@@ -2297,8 +2978,23 @@
       <c r="E104" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="1">
+        <v>3256205</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="11">
+        <v>158.71328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
@@ -2314,8 +3010,23 @@
       <c r="E105" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="1">
+        <v>3256206</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="11">
+        <v>13.848879999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>9</v>
       </c>
@@ -2331,8 +3042,23 @@
       <c r="E106" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="1">
+        <v>3344271</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="11">
+        <v>456.03323999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -2348,8 +3074,23 @@
       <c r="E107" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="1">
+        <v>3344399</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="11">
+        <v>0.35664000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -2365,8 +3106,23 @@
       <c r="E108" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="1">
+        <v>3344400</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="11">
+        <v>8.3280000000000007E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
@@ -2382,8 +3138,23 @@
       <c r="E109" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="1">
+        <v>3344401</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="11">
+        <v>37.5366</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -2399,8 +3170,23 @@
       <c r="E110" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="1">
+        <v>3256211</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -2416,8 +3202,23 @@
       <c r="E111" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="1">
+        <v>3344402</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="11">
+        <v>95.166600000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
@@ -2433,8 +3234,23 @@
       <c r="E112" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="1">
+        <v>3344403</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="11">
+        <v>0.43991999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
@@ -2450,8 +3266,23 @@
       <c r="E113" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="1">
+        <v>3344404</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="11">
+        <v>0.40992000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -2467,8 +3298,23 @@
       <c r="E114" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="1">
+        <v>3256215</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="11">
+        <v>5.9466400000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
@@ -2484,8 +3330,23 @@
       <c r="E115" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="1">
+        <v>3256216</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="11">
+        <v>0.42664000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -2501,8 +3362,23 @@
       <c r="E116" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="1">
+        <v>3344405</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="11">
+        <v>31.143239999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
@@ -2518,8 +3394,23 @@
       <c r="E117" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="1">
+        <v>3256218</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="11">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -2535,8 +3426,23 @@
       <c r="E118" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="1">
+        <v>3344406</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="11">
+        <v>5.4999599999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -2552,8 +3458,23 @@
       <c r="E119" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="1">
+        <v>3344407</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="11">
+        <v>29.076599999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -2569,8 +3490,23 @@
       <c r="E120" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="1">
+        <v>3256221</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="11">
+        <v>0.98887999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
@@ -2586,8 +3522,23 @@
       <c r="E121" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="1">
+        <v>3256222</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="11">
+        <v>13.484400000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>9</v>
       </c>
@@ -2604,7 +3555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>9</v>
       </c>
@@ -2621,7 +3572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -2638,7 +3589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
@@ -2655,7 +3606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -2672,7 +3623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +3640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -2978,7 +3929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -2995,7 +3946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -3012,7 +3963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>9</v>
       </c>
@@ -3029,7 +3980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>9</v>
       </c>
@@ -3046,7 +3997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>9</v>
       </c>
@@ -3063,7 +4014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>9</v>
       </c>
@@ -3080,7 +4031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>9</v>
       </c>
@@ -3097,7 +4048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>17</v>
       </c>
@@ -3113,8 +4064,23 @@
       <c r="E152" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="1">
+        <v>3344412</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+      <c r="J152" s="11">
+        <v>132.10656</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>17</v>
       </c>
@@ -3130,8 +4096,21 @@
       <c r="E153" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="1">
+        <v>3364996</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="1">
+        <v>1</v>
+      </c>
+      <c r="J153" s="11"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>17</v>
       </c>
@@ -3147,8 +4126,23 @@
       <c r="E154" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="1">
+        <v>3344413</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="11">
+        <v>108.03324000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>17</v>
       </c>
@@ -3164,8 +4158,23 @@
       <c r="E155" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="1">
+        <v>3344292</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="11">
+        <v>285.16332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>17</v>
       </c>
@@ -3181,8 +4190,23 @@
       <c r="E156" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="1">
+        <v>3344414</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="11">
+        <v>65.65992</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>17</v>
       </c>
@@ -3198,8 +4222,23 @@
       <c r="E157" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="1">
+        <v>3344415</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="11">
+        <v>135.9366</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>17</v>
       </c>
@@ -3215,8 +4254,23 @@
       <c r="E158" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="1">
+        <v>3344293</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+      <c r="J158" s="11">
+        <v>219.30995999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>17</v>
       </c>
@@ -3232,8 +4286,23 @@
       <c r="E159" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="1">
+        <v>3256292</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+      <c r="J159" s="11">
+        <v>12.746639999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>17</v>
       </c>
@@ -3249,8 +4318,23 @@
       <c r="E160" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="1">
+        <v>3344416</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+      <c r="J160" s="11">
+        <v>129.52992</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>17</v>
       </c>
@@ -3266,8 +4350,23 @@
       <c r="E161" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="1">
+        <v>3344417</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H161" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J161" s="11">
+        <v>156.34992</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>17</v>
       </c>
@@ -3283,8 +4382,23 @@
       <c r="E162" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="1">
+        <v>3344418</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+      <c r="J162" s="11">
+        <v>55.989960000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>17</v>
       </c>
@@ -3300,8 +4414,23 @@
       <c r="E163" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="1">
+        <v>3344419</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+      <c r="J163" s="11">
+        <v>173.86992000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -3317,8 +4446,23 @@
       <c r="E164" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="1">
+        <v>3344420</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+      <c r="J164" s="11">
+        <v>172.44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>17</v>
       </c>
@@ -3334,8 +4478,23 @@
       <c r="E165" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="1">
+        <v>3256298</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+      <c r="J165" s="11">
+        <v>68.753280000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>17</v>
       </c>
@@ -3351,8 +4510,23 @@
       <c r="E166" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="1">
+        <v>3344421</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+      <c r="J166" s="11">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>17</v>
       </c>
@@ -3368,8 +4542,23 @@
       <c r="E167" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="1">
+        <v>3344422</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+      <c r="J167" s="11">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -3385,8 +4574,23 @@
       <c r="E168" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="1">
+        <v>3256301</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168" s="11">
+        <v>83.548879999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>17</v>
       </c>
@@ -3402,8 +4606,23 @@
       <c r="E169" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="1">
+        <v>3344423</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I169" s="1">
+        <v>0</v>
+      </c>
+      <c r="J169" s="11">
+        <v>151.73663999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>17</v>
       </c>
@@ -3419,8 +4638,23 @@
       <c r="E170" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="1">
+        <v>3344424</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+      <c r="J170" s="11">
+        <v>109.53324000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>17</v>
       </c>
@@ -3436,8 +4670,23 @@
       <c r="E171" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="1">
+        <v>3344425</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171" s="1">
+        <v>0</v>
+      </c>
+      <c r="J171" s="11">
+        <v>164.70660000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>17</v>
       </c>
@@ -3454,7 +4703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>17</v>
       </c>
@@ -3471,7 +4720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>17</v>
       </c>
@@ -3488,7 +4737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>17</v>
       </c>
@@ -3505,7 +4754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>17</v>
       </c>
@@ -3794,7 +5043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>17</v>
       </c>
@@ -3811,7 +5060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>17</v>
       </c>
@@ -3828,7 +5077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>17</v>
       </c>
@@ -3845,7 +5094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>17</v>
       </c>
@@ -3862,7 +5111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>17</v>
       </c>
@@ -3879,7 +5128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>17</v>
       </c>
@@ -3896,7 +5145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>17</v>
       </c>
@@ -3913,7 +5162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>17</v>
       </c>
@@ -3930,12 +5179,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C201" s="3">
         <v>200</v>
@@ -3947,7 +5196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>17</v>
       </c>
@@ -3963,8 +5212,20 @@
       <c r="E202" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="1">
+        <v>3364996</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H202" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I202" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>17</v>
       </c>
@@ -3980,8 +5241,20 @@
       <c r="E203" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="1">
+        <v>3365005</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H203" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I203" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>17</v>
       </c>
@@ -3997,8 +5270,20 @@
       <c r="E204" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="1">
+        <v>3365016</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H204" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>17</v>
       </c>
@@ -4014,8 +5299,20 @@
       <c r="E205" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="1">
+        <v>3365037</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H205" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I205" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>17</v>
       </c>
@@ -4031,8 +5328,20 @@
       <c r="E206" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="1">
+        <v>3365097</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H206" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>17</v>
       </c>
@@ -4048,8 +5357,20 @@
       <c r="E207" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="1">
+        <v>3365105</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H207" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I207" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>17</v>
       </c>
@@ -4065,8 +5386,20 @@
       <c r="E208" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="1">
+        <v>3365800</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H208" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>17</v>
       </c>
@@ -4082,8 +5415,23 @@
       <c r="E209" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="1">
+        <v>3256312</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H209" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I209" s="1">
+        <v>0</v>
+      </c>
+      <c r="J209" s="1">
+        <v>43.384399999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>17</v>
       </c>
@@ -4099,8 +5447,20 @@
       <c r="E210" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="1">
+        <v>3365189</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H210" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I210" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>17</v>
       </c>
@@ -4116,8 +5476,17 @@
       <c r="E211" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="1">
+        <v>3364903</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H211" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>17</v>
       </c>
@@ -4133,8 +5502,17 @@
       <c r="E212" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="1">
+        <v>3364904</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H212" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>17</v>
       </c>
@@ -4150,8 +5528,17 @@
       <c r="E213" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="1">
+        <v>3364905</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H213" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>17</v>
       </c>
@@ -4167,8 +5554,17 @@
       <c r="E214" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="1">
+        <v>3344305</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H214" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>17</v>
       </c>
@@ -4184,8 +5580,17 @@
       <c r="E215" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="1">
+        <v>3344306</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H215" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>17</v>
       </c>
@@ -4201,8 +5606,17 @@
       <c r="E216" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="1">
+        <v>3344307</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H216" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>17</v>
       </c>
@@ -4218,8 +5632,17 @@
       <c r="E217" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="1">
+        <v>3344308</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H217" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>17</v>
       </c>
@@ -4235,8 +5658,17 @@
       <c r="E218" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="1">
+        <v>3344309</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H218" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>17</v>
       </c>
@@ -4252,8 +5684,17 @@
       <c r="E219" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="1">
+        <v>3344310</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H219" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>17</v>
       </c>
@@ -4269,8 +5710,17 @@
       <c r="E220" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="1">
+        <v>3344311</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H220" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>17</v>
       </c>
@@ -4286,8 +5736,17 @@
       <c r="E221" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="1">
+        <v>3344312</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H221" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>17</v>
       </c>
@@ -4304,7 +5763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>17</v>
       </c>
@@ -4321,7 +5780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>17</v>
       </c>
@@ -4610,7 +6069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>17</v>
       </c>
@@ -4627,7 +6086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>17</v>
       </c>
@@ -4644,7 +6103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>17</v>
       </c>
@@ -4661,7 +6120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>17</v>
       </c>
@@ -4678,7 +6137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>17</v>
       </c>
@@ -4695,7 +6154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>17</v>
       </c>
@@ -4712,7 +6171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>17</v>
       </c>
@@ -4729,7 +6188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>17</v>
       </c>
@@ -4746,7 +6205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>17</v>
       </c>
@@ -4763,7 +6222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>17</v>
       </c>
@@ -4780,7 +6239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>17</v>
       </c>
@@ -4797,7 +6256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>17</v>
       </c>
@@ -4813,8 +6272,17 @@
       <c r="E252" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="1">
+        <v>3358129</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H252" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>17</v>
       </c>
@@ -4830,8 +6298,17 @@
       <c r="E253" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="1">
+        <v>3358130</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H253" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>17</v>
       </c>
@@ -4847,8 +6324,17 @@
       <c r="E254" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="1">
+        <v>3358131</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H254" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>17</v>
       </c>
@@ -4864,8 +6350,17 @@
       <c r="E255" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="1">
+        <v>3358132</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H255" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>17</v>
       </c>
@@ -4881,8 +6376,17 @@
       <c r="E256" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="1">
+        <v>3358133</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H256" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>17</v>
       </c>
@@ -4898,8 +6402,17 @@
       <c r="E257" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="1">
+        <v>3358134</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H257" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>17</v>
       </c>
@@ -4915,8 +6428,17 @@
       <c r="E258" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="1">
+        <v>3358135</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H258" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>17</v>
       </c>
@@ -4932,8 +6454,17 @@
       <c r="E259" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="1">
+        <v>3358136</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H259" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>17</v>
       </c>
@@ -4949,8 +6480,17 @@
       <c r="E260" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="1">
+        <v>3358137</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H260" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>17</v>
       </c>
@@ -4966,8 +6506,17 @@
       <c r="E261" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="1">
+        <v>3358138</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H261" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>17</v>
       </c>
@@ -4983,8 +6532,17 @@
       <c r="E262" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="1">
+        <v>3358139</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H262" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>17</v>
       </c>
@@ -5000,8 +6558,17 @@
       <c r="E263" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="1">
+        <v>3358140</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H263" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>17</v>
       </c>
@@ -5017,8 +6584,23 @@
       <c r="E264" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="1">
+        <v>3358141</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H264" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I264" s="1">
+        <v>0</v>
+      </c>
+      <c r="J264" s="10">
+        <v>2.14656</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>17</v>
       </c>
@@ -5034,8 +6616,17 @@
       <c r="E265" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="1">
+        <v>3358142</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H265" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>17</v>
       </c>
@@ -5051,8 +6642,17 @@
       <c r="E266" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="1">
+        <v>3358143</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H266" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>17</v>
       </c>
@@ -5068,8 +6668,17 @@
       <c r="E267" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="1">
+        <v>3358144</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H267" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>17</v>
       </c>
@@ -5085,8 +6694,23 @@
       <c r="E268" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="1">
+        <v>3358145</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H268" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I268" s="1">
+        <v>0</v>
+      </c>
+      <c r="J268" s="10">
+        <v>80.406599999999997</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>17</v>
       </c>
@@ -5102,8 +6726,17 @@
       <c r="E269" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="1">
+        <v>3358146</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H269" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>17</v>
       </c>
@@ -5119,8 +6752,17 @@
       <c r="E270" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="1">
+        <v>3358147</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H270" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>17</v>
       </c>
@@ -5136,8 +6778,17 @@
       <c r="E271" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="1">
+        <v>3358148</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H271" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>17</v>
       </c>
@@ -5426,7 +7077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>17</v>
       </c>
@@ -5443,7 +7094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>17</v>
       </c>
@@ -5460,7 +7111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>17</v>
       </c>
@@ -5477,7 +7128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>17</v>
       </c>
@@ -5494,7 +7145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>17</v>
       </c>
@@ -5511,7 +7162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>17</v>
       </c>
@@ -5528,7 +7179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>17</v>
       </c>
@@ -5545,7 +7196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>17</v>
       </c>
@@ -5562,7 +7213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>17</v>
       </c>
@@ -5579,7 +7230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>17</v>
       </c>
@@ -5596,7 +7247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>17</v>
       </c>
@@ -5613,7 +7264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>17</v>
       </c>
@@ -5630,7 +7281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>17</v>
       </c>
@@ -5647,7 +7298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>16</v>
       </c>
@@ -5663,8 +7314,17 @@
       <c r="E302" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="1">
+        <v>3364949</v>
+      </c>
+      <c r="G302" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H302" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>16</v>
       </c>
@@ -5680,8 +7340,17 @@
       <c r="E303" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="1">
+        <v>3364950</v>
+      </c>
+      <c r="G303" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H303" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>16</v>
       </c>
@@ -5697,8 +7366,20 @@
       <c r="E304" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="1">
+        <v>3364986</v>
+      </c>
+      <c r="G304" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H304" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I304" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>16</v>
       </c>
@@ -5714,8 +7395,20 @@
       <c r="E305" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="1">
+        <v>3364987</v>
+      </c>
+      <c r="G305" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H305" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I305" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>16</v>
       </c>
@@ -5731,8 +7424,20 @@
       <c r="E306" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="1">
+        <v>3364988</v>
+      </c>
+      <c r="G306" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H306" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I306" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>16</v>
       </c>
@@ -5748,8 +7453,17 @@
       <c r="E307" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="1">
+        <v>3364935</v>
+      </c>
+      <c r="G307" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H307" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
@@ -5765,8 +7479,20 @@
       <c r="E308" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="1">
+        <v>3364989</v>
+      </c>
+      <c r="G308" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H308" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I308" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>16</v>
       </c>
@@ -5782,8 +7508,20 @@
       <c r="E309" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="1">
+        <v>3364990</v>
+      </c>
+      <c r="G309" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H309" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I309" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>16</v>
       </c>
@@ -5799,8 +7537,17 @@
       <c r="E310" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" s="1">
+        <v>3364952</v>
+      </c>
+      <c r="G310" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H310" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>16</v>
       </c>
@@ -5816,8 +7563,17 @@
       <c r="E311" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311" s="1">
+        <v>3364953</v>
+      </c>
+      <c r="G311" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H311" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>16</v>
       </c>
@@ -5833,8 +7589,17 @@
       <c r="E312" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312" s="1">
+        <v>3364954</v>
+      </c>
+      <c r="G312" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H312" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>16</v>
       </c>
@@ -5850,8 +7615,20 @@
       <c r="E313" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313" s="1">
+        <v>3364991</v>
+      </c>
+      <c r="G313" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H313" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I313" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>16</v>
       </c>
@@ -5867,8 +7644,17 @@
       <c r="E314" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314" s="1">
+        <v>3364956</v>
+      </c>
+      <c r="G314" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H314" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>16</v>
       </c>
@@ -5884,8 +7670,20 @@
       <c r="E315" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315" s="1">
+        <v>3364992</v>
+      </c>
+      <c r="G315" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H315" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I315" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>16</v>
       </c>
@@ -5901,8 +7699,17 @@
       <c r="E316" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316" s="1">
+        <v>3364957</v>
+      </c>
+      <c r="G316" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H316" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>16</v>
       </c>
@@ -5918,8 +7725,17 @@
       <c r="E317" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317" s="1">
+        <v>3364958</v>
+      </c>
+      <c r="G317" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H317" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>16</v>
       </c>
@@ -5935,8 +7751,17 @@
       <c r="E318" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="1">
+        <v>3364959</v>
+      </c>
+      <c r="G318" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H318" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>16</v>
       </c>
@@ -5952,8 +7777,17 @@
       <c r="E319" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319" s="1">
+        <v>3364960</v>
+      </c>
+      <c r="G319" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H319" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>16</v>
       </c>
@@ -5969,8 +7803,17 @@
       <c r="E320" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320" s="1">
+        <v>3364961</v>
+      </c>
+      <c r="G320" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H320" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>16</v>
       </c>
@@ -5986,8 +7829,17 @@
       <c r="E321" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321" s="1">
+        <v>3364962</v>
+      </c>
+      <c r="G321" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H321" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>16</v>
       </c>
@@ -6003,8 +7855,11 @@
       <c r="E322" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H322" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>16</v>
       </c>
@@ -6021,7 +7876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>16</v>
       </c>
@@ -6038,7 +7893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>16</v>
       </c>
@@ -6055,7 +7910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>16</v>
       </c>
@@ -6072,7 +7927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>16</v>
       </c>
@@ -6089,7 +7944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>16</v>
       </c>
@@ -6106,7 +7961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>16</v>
       </c>
@@ -6123,7 +7978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>16</v>
       </c>
@@ -6140,7 +7995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>16</v>
       </c>
@@ -6157,7 +8012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>16</v>
       </c>
@@ -6174,7 +8029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>16</v>
       </c>
@@ -6191,7 +8046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>16</v>
       </c>
@@ -6208,7 +8063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>16</v>
       </c>
@@ -6225,7 +8080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>16</v>
       </c>
@@ -6242,7 +8097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>16</v>
       </c>
@@ -6259,7 +8114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>16</v>
       </c>
@@ -6276,7 +8131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>16</v>
       </c>
@@ -6293,7 +8148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>16</v>
       </c>
@@ -6310,7 +8165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>16</v>
       </c>
@@ -6327,7 +8182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>16</v>
       </c>
@@ -6344,7 +8199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>16</v>
       </c>
@@ -6361,7 +8216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>16</v>
       </c>
@@ -6378,7 +8233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>16</v>
       </c>
@@ -6395,7 +8250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>16</v>
       </c>
@@ -6412,7 +8267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>16</v>
       </c>
@@ -6429,7 +8284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>16</v>
       </c>
@@ -6446,7 +8301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>16</v>
       </c>
@@ -6463,7 +8318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>16</v>
       </c>
@@ -6480,12 +8335,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C351" s="3">
         <v>350</v>
@@ -6497,7 +8352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>16</v>
       </c>
@@ -6513,8 +8368,17 @@
       <c r="E352" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352" s="1">
+        <v>3358169</v>
+      </c>
+      <c r="G352" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H352" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>16</v>
       </c>
@@ -6530,8 +8394,17 @@
       <c r="E353" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353" s="1">
+        <v>3358170</v>
+      </c>
+      <c r="G353" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H353" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>16</v>
       </c>
@@ -6547,8 +8420,17 @@
       <c r="E354" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354" s="1">
+        <v>3358171</v>
+      </c>
+      <c r="G354" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H354" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>16</v>
       </c>
@@ -6564,8 +8446,17 @@
       <c r="E355" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355" s="1">
+        <v>3358172</v>
+      </c>
+      <c r="G355" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H355" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>16</v>
       </c>
@@ -6581,8 +8472,20 @@
       <c r="E356" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356" s="1">
+        <v>3358173</v>
+      </c>
+      <c r="G356" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H356" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I356" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>16</v>
       </c>
@@ -6598,8 +8501,17 @@
       <c r="E357" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357" s="1">
+        <v>3358174</v>
+      </c>
+      <c r="G357" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H357" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>16</v>
       </c>
@@ -6615,8 +8527,17 @@
       <c r="E358" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358" s="1">
+        <v>3358175</v>
+      </c>
+      <c r="G358" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H358" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>16</v>
       </c>
@@ -6632,8 +8553,20 @@
       <c r="E359" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359" s="1">
+        <v>3358176</v>
+      </c>
+      <c r="G359" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H359" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I359" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>16</v>
       </c>
@@ -6649,8 +8582,17 @@
       <c r="E360" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360" s="1">
+        <v>3358177</v>
+      </c>
+      <c r="G360" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H360" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>16</v>
       </c>
@@ -6666,8 +8608,17 @@
       <c r="E361" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361" s="1">
+        <v>3358178</v>
+      </c>
+      <c r="G361" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H361" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>16</v>
       </c>
@@ -6683,8 +8634,17 @@
       <c r="E362" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362" s="1">
+        <v>3358179</v>
+      </c>
+      <c r="G362" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H362" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>16</v>
       </c>
@@ -6700,8 +8660,20 @@
       <c r="E363" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363" s="1">
+        <v>3358180</v>
+      </c>
+      <c r="G363" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H363" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I363" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>16</v>
       </c>
@@ -6717,8 +8689,20 @@
       <c r="E364" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364" s="1">
+        <v>3358181</v>
+      </c>
+      <c r="G364" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H364" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I364" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>16</v>
       </c>
@@ -6734,8 +8718,17 @@
       <c r="E365" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365" s="1">
+        <v>3358182</v>
+      </c>
+      <c r="G365" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H365" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>16</v>
       </c>
@@ -6751,8 +8744,17 @@
       <c r="E366" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366" s="1">
+        <v>3358183</v>
+      </c>
+      <c r="G366" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H366" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>16</v>
       </c>
@@ -6768,8 +8770,17 @@
       <c r="E367" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367" s="1">
+        <v>3358184</v>
+      </c>
+      <c r="G367" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H367" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>16</v>
       </c>
@@ -6785,8 +8796,17 @@
       <c r="E368" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F368" s="1">
+        <v>3358185</v>
+      </c>
+      <c r="G368" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H368" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>16</v>
       </c>
@@ -6802,8 +8822,17 @@
       <c r="E369" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369" s="1">
+        <v>3358186</v>
+      </c>
+      <c r="G369" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H369" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>16</v>
       </c>
@@ -6819,8 +8848,17 @@
       <c r="E370" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F370" s="1">
+        <v>3358187</v>
+      </c>
+      <c r="G370" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H370" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>16</v>
       </c>
@@ -6836,8 +8874,17 @@
       <c r="E371" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F371" s="1">
+        <v>3358188</v>
+      </c>
+      <c r="G371" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H371" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>16</v>
       </c>
@@ -6854,7 +8901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>16</v>
       </c>
@@ -6871,7 +8918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>16</v>
       </c>
@@ -6888,7 +8935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>16</v>
       </c>
@@ -6905,7 +8952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>16</v>
       </c>
@@ -6922,7 +8969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>16</v>
       </c>
@@ -6939,7 +8986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>16</v>
       </c>
@@ -6956,7 +9003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>16</v>
       </c>
@@ -6973,7 +9020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>16</v>
       </c>
@@ -6990,7 +9037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>16</v>
       </c>
@@ -7007,7 +9054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>16</v>
       </c>
@@ -7024,7 +9071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>16</v>
       </c>
@@ -7041,7 +9088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>16</v>
       </c>
@@ -7330,7 +9377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>16</v>
       </c>
@@ -7347,7 +9394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>16</v>
       </c>
@@ -7363,8 +9410,17 @@
       <c r="E402" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F402" s="1">
+        <v>3358189</v>
+      </c>
+      <c r="G402" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H402" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>16</v>
       </c>
@@ -7380,8 +9436,17 @@
       <c r="E403" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F403" s="1">
+        <v>3358190</v>
+      </c>
+      <c r="G403" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H403" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>16</v>
       </c>
@@ -7397,8 +9462,17 @@
       <c r="E404" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F404" s="1">
+        <v>3358191</v>
+      </c>
+      <c r="G404" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H404" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>16</v>
       </c>
@@ -7414,8 +9488,17 @@
       <c r="E405" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F405" s="1">
+        <v>3358192</v>
+      </c>
+      <c r="G405" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H405" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>16</v>
       </c>
@@ -7431,8 +9514,17 @@
       <c r="E406" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F406" s="1">
+        <v>3358193</v>
+      </c>
+      <c r="G406" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H406" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>16</v>
       </c>
@@ -7448,8 +9540,17 @@
       <c r="E407" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F407" s="1">
+        <v>3358194</v>
+      </c>
+      <c r="G407" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H407" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>16</v>
       </c>
@@ -7465,8 +9566,17 @@
       <c r="E408" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F408" s="1">
+        <v>3358195</v>
+      </c>
+      <c r="G408" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H408" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>16</v>
       </c>
@@ -7482,8 +9592,17 @@
       <c r="E409" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F409" s="1">
+        <v>3358196</v>
+      </c>
+      <c r="G409" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H409" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>16</v>
       </c>
@@ -7499,8 +9618,17 @@
       <c r="E410" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F410" s="1">
+        <v>3358197</v>
+      </c>
+      <c r="G410" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H410" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>16</v>
       </c>
@@ -7516,8 +9644,17 @@
       <c r="E411" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F411" s="1">
+        <v>3358198</v>
+      </c>
+      <c r="G411" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H411" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>16</v>
       </c>
@@ -7533,8 +9670,17 @@
       <c r="E412" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F412" s="1">
+        <v>3358199</v>
+      </c>
+      <c r="G412" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H412" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>16</v>
       </c>
@@ -7550,8 +9696,17 @@
       <c r="E413" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F413" s="1">
+        <v>3358200</v>
+      </c>
+      <c r="G413" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H413" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>16</v>
       </c>
@@ -7567,8 +9722,17 @@
       <c r="E414" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F414" s="1">
+        <v>3358201</v>
+      </c>
+      <c r="G414" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H414" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>16</v>
       </c>
@@ -7584,8 +9748,17 @@
       <c r="E415" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F415" s="1">
+        <v>3358202</v>
+      </c>
+      <c r="G415" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H415" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>16</v>
       </c>
@@ -7601,8 +9774,17 @@
       <c r="E416" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F416" s="1">
+        <v>3358203</v>
+      </c>
+      <c r="G416" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H416" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>16</v>
       </c>
@@ -7618,8 +9800,17 @@
       <c r="E417" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F417" s="1">
+        <v>3358204</v>
+      </c>
+      <c r="G417" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H417" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>16</v>
       </c>
@@ -7635,8 +9826,17 @@
       <c r="E418" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F418" s="1">
+        <v>3358205</v>
+      </c>
+      <c r="G418" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H418" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>16</v>
       </c>
@@ -7652,8 +9852,17 @@
       <c r="E419" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F419" s="1">
+        <v>3358206</v>
+      </c>
+      <c r="G419" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H419" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>16</v>
       </c>
@@ -7669,8 +9878,17 @@
       <c r="E420" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F420" s="1">
+        <v>3358207</v>
+      </c>
+      <c r="G420" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H420" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>16</v>
       </c>
@@ -7686,8 +9904,17 @@
       <c r="E421" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F421" s="1">
+        <v>3358208</v>
+      </c>
+      <c r="G421" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H421" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>16</v>
       </c>
@@ -7704,7 +9931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>16</v>
       </c>
@@ -7721,7 +9948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>16</v>
       </c>
@@ -7738,7 +9965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>16</v>
       </c>
@@ -7755,7 +9982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>16</v>
       </c>
@@ -7772,7 +9999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>16</v>
       </c>
@@ -7789,7 +10016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>16</v>
       </c>
@@ -7806,7 +10033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>16</v>
       </c>
@@ -7823,7 +10050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>16</v>
       </c>
@@ -7840,7 +10067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>16</v>
       </c>
@@ -7857,7 +10084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>16</v>
       </c>
